--- a/medicine/Enfance/La_Malédiction_du_rubis/La_Malédiction_du_rubis.xlsx
+++ b/medicine/Enfance/La_Malédiction_du_rubis/La_Malédiction_du_rubis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Mal%C3%A9diction_du_rubis</t>
+          <t>La_Malédiction_du_rubis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Malédiction du rubis (titre original : The Ruby in the Smoke) est le premier tome de la série Sally Lockhart écrite par Philip Pullman. Il a été publié en 1985. L'action se déroule dans les bas-fonds de Londres durant l'époque Victorienne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Mal%C3%A9diction_du_rubis</t>
+          <t>La_Malédiction_du_rubis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le premier opus, l'auteur pose son décor. L'action se déroule dans les sombres ruelles du Londres durant l'automne de 1872. La jeune et impétueuse Sally Lockhart est orpheline de mère depuis sa plus tendre enfance. Son père, le capitaine Lockhart l'a élevée seul et lui a enseigné notamment à se servir d'une arme à feu et à tenir des comptes, talents qui lui seront bien utiles dans ses aventures.
 Le roman commence au moment où Sally apprend le décès prématuré de son père. Ce dernier était en mission pour sa société Lockhart &amp; Selby lorsque son bateau – le schooner Lavinia – a sombré en mer de Chine. Elle reçoit alors un message lui indiquant l'existence de secrets concernant sa naissance et un rubis.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Mal%C3%A9diction_du_rubis</t>
+          <t>La_Malédiction_du_rubis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,11 @@
           <t>Contexte historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs événements historiques réels se révèlent d'une grande importance dans ce récit.
-La rébellion indienne et le siège de Lucknow
-La rébellion indienne de 1857 est évoquée à de nombreuses reprises. C'est durant ce soulèvement populaire que se déroule le siège de Lucknow. Assiégée puis prise par les rebelles, cette ville ne fut reprise par les Britanniques qu'en mars 1858 après une résistance farouche.
-Le commerce de l'opium
-En toile de fond, le commerce de l'opium constitue un élément essentiel de l'intrigue. Au XIXe siècle, le trafic d'opium depuis l'Inde vers la Chine, pratiqué par les Britanniques, est à l'origine des guerres de l'opium (de 1839 à 1842, puis de 1856 à 1860). L'Angleterre a remporté ces conflits contre la Chine, ce qui lui permet d'imposer la légalisation de ce commerce. Frederick Garland résume l'histoire ainsi (p.136):
-« Les Chinois ne voulaient pas que les marchands anglais en fassent entrer illégalement dans leur pays: ils ont essayé de l'interdire. Alors, nous avons fait la guerre pour les obliger à accepter l'opium. Il est cultivé en Inde, sous le contrôle du gouvernement. »
-Le roman met en scène une fumerie d'opium à Londres, tenue par une Chinoise, dans le quartier de Limehouse. Plusieurs personnages se révèlent être des consommateurs de cette drogue.
-La photographie stéréoscopique
-À travers le personnage de Frederick Garland, le récit met en scène une innovation technologique de l'époque: la stéréoscopie, une forme de photographie qui permet un visionnement en trois dimensions. Sally va convaincre Frederick et Rosa à produire des vues stéréoscopiques, appréciées du public. Ce type de photographies était effectivement en vogue, depuis l'invention du premier stéréoscope en 1838.
 </t>
         </is>
       </c>
@@ -566,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Mal%C3%A9diction_du_rubis</t>
+          <t>La_Malédiction_du_rubis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,15 +589,168 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Contexte historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La rébellion indienne et le siège de Lucknow</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rébellion indienne de 1857 est évoquée à de nombreuses reprises. C'est durant ce soulèvement populaire que se déroule le siège de Lucknow. Assiégée puis prise par les rebelles, cette ville ne fut reprise par les Britanniques qu'en mars 1858 après une résistance farouche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Malédiction_du_rubis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mal%C3%A9diction_du_rubis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Contexte historique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le commerce de l'opium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En toile de fond, le commerce de l'opium constitue un élément essentiel de l'intrigue. Au XIXe siècle, le trafic d'opium depuis l'Inde vers la Chine, pratiqué par les Britanniques, est à l'origine des guerres de l'opium (de 1839 à 1842, puis de 1856 à 1860). L'Angleterre a remporté ces conflits contre la Chine, ce qui lui permet d'imposer la légalisation de ce commerce. Frederick Garland résume l'histoire ainsi (p.136):
+« Les Chinois ne voulaient pas que les marchands anglais en fassent entrer illégalement dans leur pays: ils ont essayé de l'interdire. Alors, nous avons fait la guerre pour les obliger à accepter l'opium. Il est cultivé en Inde, sous le contrôle du gouvernement. »
+Le roman met en scène une fumerie d'opium à Londres, tenue par une Chinoise, dans le quartier de Limehouse. Plusieurs personnages se révèlent être des consommateurs de cette drogue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>La_Malédiction_du_rubis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mal%C3%A9diction_du_rubis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contexte historique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La photographie stéréoscopique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À travers le personnage de Frederick Garland, le récit met en scène une innovation technologique de l'époque: la stéréoscopie, une forme de photographie qui permet un visionnement en trois dimensions. Sally va convaincre Frederick et Rosa à produire des vues stéréoscopiques, appréciées du public. Ce type de photographies était effectivement en vogue, depuis l'invention du premier stéréoscope en 1838.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Malédiction_du_rubis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mal%C3%A9diction_du_rubis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la télévision
-Ce livre a été adapté en téléfilm par la BBC en 2006, avec pour réalisateur Brian Percival, et l'actrice Billie Piper dans le rôle de Sally. Il a été suivi par un deuxième épisode, adaptation du livre Le Mystère de l'Étoile polaire, en 2007[1],[2]. Les deux épisodes ont été édités en DVD sous le titre "Sally Lockhart Mysteries".
-Au théâtre
-En 2016, une adaptation de La Malédiction du rubis pour le théâtre a été écrite et mise en scène par Madeleine Perham[3]. La première représentation fut donnée dans une librairie d'Oxford, en présence de Philip Pullman[4]. 
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce livre a été adapté en téléfilm par la BBC en 2006, avec pour réalisateur Brian Percival, et l'actrice Billie Piper dans le rôle de Sally. Il a été suivi par un deuxième épisode, adaptation du livre Le Mystère de l'Étoile polaire, en 2007,. Les deux épisodes ont été édités en DVD sous le titre "Sally Lockhart Mysteries".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Malédiction_du_rubis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Mal%C3%A9diction_du_rubis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adaptations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Au théâtre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, une adaptation de La Malédiction du rubis pour le théâtre a été écrite et mise en scène par Madeleine Perham. La première représentation fut donnée dans une librairie d'Oxford, en présence de Philip Pullman. 
 </t>
         </is>
       </c>
